--- a/Folder with excel and script/ASN_2012_2022_vyborka_po_Gakkelyu.xlsx
+++ b/Folder with excel and script/ASN_2012_2022_vyborka_po_Gakkelyu.xlsx
@@ -5,15 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cambo\Documents\repos\python\work\Представительная магнитуда\Folder with excel and script\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cambo\Documents\repos\python\work\Magnitude of Completeness\Folder with excel and script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4B6175-CB48-4654-A13A-79D7D7BCD9D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCDEF97-1995-4139-A437-51E73EDE3DD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DA5D3DE1-FD85-4851-8977-31B675980BA8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{DA5D3DE1-FD85-4851-8977-31B675980BA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Г" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист4" sheetId="4" r:id="rId4"/>
+    <sheet name="Лист5" sheetId="5" r:id="rId5"/>
+    <sheet name="Лист6" sheetId="6" r:id="rId6"/>
+    <sheet name="Отвратительно длинное название " sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4830" uniqueCount="1572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4831" uniqueCount="1573">
   <si>
     <t>ZFI2, SPA0, KBS, ZFI, ZFI3</t>
   </si>
@@ -4747,6 +4753,9 @@
   </si>
   <si>
     <t>а</t>
+  </si>
+  <si>
+    <t>Д</t>
   </si>
 </sst>
 </file>
@@ -5596,7 +5605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E57FB9-72EE-4CBA-96EF-7E78B882BF08}">
   <dimension ref="A1:N1227"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1223" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J1231" sqref="J1231"/>
     </sheetView>
@@ -45077,4 +45086,86 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42851177-A1E3-4170-AA42-03CCC511DCAC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38AD0DB6-F55F-4F01-9C1F-50BDBEF8F6AF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2407D0-2FF5-439D-9CC9-129C766364AD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A3FF24A-CBC5-4243-9CE9-B6E1EEB23E94}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6309F4-31A7-46E2-A28D-81BFA9420F15}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F09F1E22-28E2-4DD9-9104-63DE611D5D7A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>